--- a/terms/uberon_toDO.xlsx
+++ b/terms/uberon_toDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E898F89-A1E1-5543-B7D4-9B7E4EF14EE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F814D46C-6940-874A-A2F9-DFF7C3D8B704}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15140" xr2:uid="{45D54E83-BDAC-1F46-BE70-CC3498C67D3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Synonymize incisor 1 and 2 (central and lateral incisors)</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5322F571-57E4-9845-98D4-C22242DF431E}">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,6 +597,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/terms/uberon_toDO.xlsx
+++ b/terms/uberon_toDO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F814D46C-6940-874A-A2F9-DFF7C3D8B704}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0172F4-4238-C54B-97C3-D295B8AAAC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15140" xr2:uid="{45D54E83-BDAC-1F46-BE70-CC3498C67D3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Synonymize incisor 1 and 2 (central and lateral incisors)</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>add structures</t>
+  </si>
+  <si>
+    <t>add trochlear sulcus of humerus as synonym for trochelar groove of humerus</t>
+  </si>
+  <si>
+    <t>add talus head as a synonym for astragalus head</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5322F571-57E4-9845-98D4-C22242DF431E}">
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,6 +608,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/terms/uberon_toDO.xlsx
+++ b/terms/uberon_toDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0172F4-4238-C54B-97C3-D295B8AAAC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7979246-455E-8445-B91D-47241BF1CCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15140" xr2:uid="{45D54E83-BDAC-1F46-BE70-CC3498C67D3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Synonymize incisor 1 and 2 (central and lateral incisors)</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>add talus head as a synonym for astragalus head</t>
+  </si>
+  <si>
+    <t>add proboscus as related syn to snout</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5322F571-57E4-9845-98D4-C22242DF431E}">
-  <dimension ref="A2:C23"/>
+  <dimension ref="A2:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,6 +621,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/terms/uberon_toDO.xlsx
+++ b/terms/uberon_toDO.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7979246-455E-8445-B91D-47241BF1CCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17498174-004D-E740-818F-E6CB524D238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15140" xr2:uid="{45D54E83-BDAC-1F46-BE70-CC3498C67D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Synonymize incisor 1 and 2 (central and lateral incisors)</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>add proboscus as related syn to snout</t>
+  </si>
+  <si>
+    <t>add proximal articular surface of radius as a synonym to humeral facet on radius</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5322F571-57E4-9845-98D4-C22242DF431E}">
-  <dimension ref="A2:C24"/>
+  <dimension ref="A2:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -626,6 +629,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/terms/uberon_toDO.xlsx
+++ b/terms/uberon_toDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17498174-004D-E740-818F-E6CB524D238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA4FDF-C080-C449-B7AC-F6C80AC2F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15140" xr2:uid="{45D54E83-BDAC-1F46-BE70-CC3498C67D3D}"/>
   </bookViews>

--- a/terms/uberon_toDO.xlsx
+++ b/terms/uberon_toDO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA4FDF-C080-C449-B7AC-F6C80AC2F593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BE1D92-4005-B049-992E-4A69EA99E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15140" xr2:uid="{45D54E83-BDAC-1F46-BE70-CC3498C67D3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Synonymize incisor 1 and 2 (central and lateral incisors)</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>add proximal articular surface of radius as a synonym to humeral facet on radius</t>
+  </si>
+  <si>
+    <t>add synonym: diaphysis and corpus</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5322F571-57E4-9845-98D4-C22242DF431E}">
-  <dimension ref="A2:C25"/>
+  <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,6 +637,11 @@
         <v>26</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
